--- a/src/main/java/db/LectureRoomReservation.xlsx
+++ b/src/main/java/db/LectureRoomReservation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Administrator\Documents\NetBeansProjects\LectureRoomReservation\src\main\java\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94EB5611-1D19-49BA-8EDA-0B39971D453D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0A84FF-ED2A-4ACD-9D69-D99C2CD22358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{CD724C36-E040-4A9B-8DAC-BE65BDB47C58}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD724C36-E040-4A9B-8DAC-BE65BDB47C58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,10 @@
   </si>
   <si>
     <t>컴퓨터소프트웨어공학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172F3228-9310-48BF-A6E8-F4DEF8AB96A1}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -467,6 +471,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="C3">
+        <v>123</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/db/LectureRoomReservation.xlsx
+++ b/src/main/java/db/LectureRoomReservation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Administrator\Documents\NetBeansProjects\LectureRoomReservation\src\main\java\db\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,12 +66,46 @@
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>아이디</t>
+  </si>
+  <si>
+    <t>비밀번호</t>
+  </si>
+  <si>
+    <t>학과</t>
+  </si>
+  <si>
+    <t>경고 횟수</t>
+  </si>
+  <si>
+    <t>홍길동</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>컴퓨터소프트웨어공학과</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -437,55 +471,55 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>123</v>
-      </c>
-      <c r="C2">
-        <v>123</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>123</v>
-      </c>
-      <c r="C3">
-        <v>123</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/db/LectureRoomReservation.xlsx
+++ b/src/main/java/db/LectureRoomReservation.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Administrator\Documents\NetBeansProjects\LectureRoomReservation\src\main\java\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duatm\Documents\NetBeansProjects\LectureRoomReservation\LectureRoomReservation\src\main\java\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0A84FF-ED2A-4ACD-9D69-D99C2CD22358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AF6DED-66B1-4598-B1FD-F43903254E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD724C36-E040-4A9B-8DAC-BE65BDB47C58}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{CD724C36-E040-4A9B-8DAC-BE65BDB47C58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,78 +34,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>이름</t>
+  </si>
+  <si>
+    <t>아이디</t>
+  </si>
+  <si>
+    <t>비밀번호</t>
+  </si>
+  <si>
+    <t>학과</t>
+  </si>
+  <si>
+    <t>경고 횟수</t>
+  </si>
+  <si>
+    <t>홍길동</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>컴퓨터소프트웨어공학과</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>문의 사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이디</t>
+    <t>문의 해결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비밀번호</t>
+    <t>강의실이 너무 더럽다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경고 횟수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터소프트웨어공학과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-  </si>
-  <si>
-    <t>아이디</t>
-  </si>
-  <si>
-    <t>비밀번호</t>
-  </si>
-  <si>
-    <t>학과</t>
-  </si>
-  <si>
-    <t>경고 횟수</t>
-  </si>
-  <si>
-    <t>홍길동</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>컴퓨터소프트웨어공학과</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -167,9 +146,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -207,7 +186,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -313,7 +292,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -455,7 +434,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -463,63 +442,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172F3228-9310-48BF-A6E8-F4DEF8AB96A1}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>18</v>
+      <c r="G3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/db/LectureRoomReservation.xlsx
+++ b/src/main/java/db/LectureRoomReservation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duatm\Documents\NetBeansProjects\LectureRoomReservation\LectureRoomReservation\src\main\java\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AF6DED-66B1-4598-B1FD-F43903254E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5D63EB-68F6-43D5-AEE5-461F7185FAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{CD724C36-E040-4A9B-8DAC-BE65BDB47C58}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="15">
   <si>
     <t>이름</t>
   </si>
@@ -51,9 +51,6 @@
     <t>경고 횟수</t>
   </si>
   <si>
-    <t>홍길동</t>
-  </si>
-  <si>
     <t>123</t>
   </si>
   <si>
@@ -70,21 +67,25 @@
   </si>
   <si>
     <t>문의 사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>문의 해결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>강의실이 너무 더럽다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>김광식</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -445,78 +446,78 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s" s="0">
         <v>12</v>
       </c>
+      <c r="G2" t="s" s="0">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="E3" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
+      <c r="F3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/db/LectureRoomReservation.xlsx
+++ b/src/main/java/db/LectureRoomReservation.xlsx
@@ -3,38 +3,37 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duatm\Documents\NetBeansProjects\LectureRoomReservation\LectureRoomReservation\src\main\java\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgzza\OneDrive\바탕 화면\과제\소프트웨어 공학\LectureRoomReservation\src\main\java\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5D63EB-68F6-43D5-AEE5-461F7185FAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4329330D-E275-4120-95B2-9791CE5894B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{CD724C36-E040-4A9B-8DAC-BE65BDB47C58}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CD724C36-E040-4A9B-8DAC-BE65BDB47C58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BrokenComputer" sheetId="2" r:id="rId2"/>
+    <sheet name="911" sheetId="3" r:id="rId3"/>
+    <sheet name="912" sheetId="4" r:id="rId4"/>
+    <sheet name="913" sheetId="5" r:id="rId5"/>
+    <sheet name="914" sheetId="6" r:id="rId6"/>
+    <sheet name="915" sheetId="7" r:id="rId7"/>
+    <sheet name="916" sheetId="8" r:id="rId8"/>
+    <sheet name="917" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="22">
   <si>
     <t>이름</t>
   </si>
@@ -79,13 +78,40 @@
   </si>
   <si>
     <t>김광식</t>
+  </si>
+  <si>
+    <t>예약 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜 (YYYY.MM.DD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 (HH:MM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -147,9 +173,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -187,7 +213,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -293,7 +319,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -435,7 +461,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -445,78 +471,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172F3228-9310-48BF-A6E8-F4DEF8AB96A1}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -525,4 +551,305 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3C8A87-E491-4391-AB43-3743AF995DCE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB5E0FD-E9D4-4434-BA57-5E4432659AA5}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="5" max="5" width="19.3984375" customWidth="1"/>
+    <col min="6" max="6" width="14.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EA38AE-DEFB-4F62-84D0-DB5091B69216}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="5" max="5" width="21.3984375" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D303899-5B98-4AF8-81B1-D97478304C37}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="5" max="5" width="20.19921875" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88347084-1D15-49A5-94E4-F003A0C6A4ED}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="13.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2716E5F9-8A62-48E7-A6EA-1F74537DFE72}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="5" max="5" width="21.09765625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3698113-DE48-4BB6-B527-F3647EAF04BE}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="5" max="5" width="22.3984375" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F021A320-FA74-4821-BB37-524D4F186834}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="5" max="5" width="21.296875" customWidth="1"/>
+    <col min="6" max="6" width="15.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/db/LectureRoomReservation.xlsx
+++ b/src/main/java/db/LectureRoomReservation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgzza\OneDrive\바탕 화면\과제\소프트웨어 공학\LectureRoomReservation\src\main\java\db\"/>
     </mc:Choice>
@@ -25,7 +25,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="25">
   <si>
     <t>이름</t>
   </si>
@@ -107,11 +107,21 @@
     <t>컴퓨터 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>홍길동</t>
+  </si>
+  <si>
+    <t>20213009</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -477,73 +487,70 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
+      <c r="F3" t="s" s="0">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -564,7 +571,7 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -584,27 +591,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="19.3984375" customWidth="1"/>
-    <col min="6" max="6" width="14.69921875" customWidth="1"/>
+    <col min="5" max="5" customWidth="true" width="19.3984375"/>
+    <col min="6" max="6" customWidth="true" width="14.69921875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>20</v>
       </c>
     </row>
@@ -624,27 +631,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="21.3984375" customWidth="1"/>
-    <col min="6" max="6" width="13.59765625" customWidth="1"/>
+    <col min="5" max="5" customWidth="true" width="21.3984375"/>
+    <col min="6" max="6" customWidth="true" width="13.59765625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>20</v>
       </c>
     </row>
@@ -664,27 +671,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="20.19921875" customWidth="1"/>
-    <col min="6" max="6" width="14.19921875" customWidth="1"/>
+    <col min="5" max="5" customWidth="true" width="20.19921875"/>
+    <col min="6" max="6" customWidth="true" width="14.19921875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>20</v>
       </c>
     </row>
@@ -704,27 +711,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="13.796875" customWidth="1"/>
+    <col min="5" max="5" customWidth="true" width="22.0"/>
+    <col min="6" max="6" customWidth="true" width="13.796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>20</v>
       </c>
     </row>
@@ -744,27 +751,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="21.09765625" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="5" max="5" customWidth="true" width="21.09765625"/>
+    <col min="6" max="6" customWidth="true" width="13.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>20</v>
       </c>
     </row>
@@ -784,27 +791,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="22.3984375" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="5" max="5" customWidth="true" width="22.3984375"/>
+    <col min="6" max="6" customWidth="true" width="13.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>20</v>
       </c>
     </row>
@@ -824,27 +831,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="21.296875" customWidth="1"/>
-    <col min="6" max="6" width="15.296875" customWidth="1"/>
+    <col min="5" max="5" customWidth="true" width="21.296875"/>
+    <col min="6" max="6" customWidth="true" width="15.296875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>20</v>
       </c>
     </row>

--- a/src/main/java/db/LectureRoomReservation.xlsx
+++ b/src/main/java/db/LectureRoomReservation.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgzza\OneDrive\바탕 화면\과제\소프트웨어 공학\LectureRoomReservation\src\main\java\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4329330D-E275-4120-95B2-9791CE5894B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F1AB5F-5825-49B6-A1C1-3E7F734FB70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CD724C36-E040-4A9B-8DAC-BE65BDB47C58}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{CD724C36-E040-4A9B-8DAC-BE65BDB47C58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="67">
   <si>
     <t>이름</t>
   </si>
@@ -74,12 +74,6 @@
     <t>강의실이 너무 더럽다.</t>
   </si>
   <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>김광식</t>
-  </si>
-  <si>
     <t>예약 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,13 +109,188 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>911-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>911-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>915-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>916-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>916-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>917-34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>918-40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ghi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jkl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pqr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wxy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>non</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uwu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nwn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ouo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcd1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efgh5678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ijkl9101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mnop1213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qrst1415</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uvwx1617</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yzzz1819</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>afsj1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adsf1230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zvhj2940</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oijq1592</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saog2408</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdzo1987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zcxv3498</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xovi2349</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.05.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.05.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.05.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.05.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.05.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.06.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.07.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -161,8 +330,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,70 +659,70 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -562,17 +734,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3C8A87-E491-4391-AB43-3743AF995DCE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s" s="0">
-        <v>21</v>
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -583,36 +790,337 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB5E0FD-E9D4-4434-BA57-5E4432659AA5}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" customWidth="true" width="19.3984375"/>
-    <col min="6" max="6" customWidth="true" width="14.69921875"/>
+    <col min="4" max="4" width="10.59765625" customWidth="1"/>
+    <col min="5" max="5" width="19.3984375" customWidth="1"/>
+    <col min="6" max="6" width="14.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s" s="0">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>19</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>
@@ -631,28 +1139,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" customWidth="true" width="21.3984375"/>
-    <col min="6" max="6" customWidth="true" width="13.59765625"/>
+    <col min="5" max="5" width="21.3984375" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="F1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s" s="0">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -671,28 +1179,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" customWidth="true" width="20.19921875"/>
-    <col min="6" max="6" customWidth="true" width="14.19921875"/>
+    <col min="5" max="5" width="20.19921875" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="F1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s" s="0">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -711,28 +1219,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" customWidth="true" width="22.0"/>
-    <col min="6" max="6" customWidth="true" width="13.796875"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="13.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="F1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s" s="0">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -751,28 +1259,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" customWidth="true" width="21.09765625"/>
-    <col min="6" max="6" customWidth="true" width="13.0"/>
+    <col min="5" max="5" width="21.09765625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="F1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s" s="0">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -791,28 +1299,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" customWidth="true" width="22.3984375"/>
-    <col min="6" max="6" customWidth="true" width="13.5"/>
+    <col min="5" max="5" width="22.3984375" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="F1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s" s="0">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -831,28 +1339,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" customWidth="true" width="21.296875"/>
-    <col min="6" max="6" customWidth="true" width="15.296875"/>
+    <col min="5" max="5" width="21.296875" customWidth="1"/>
+    <col min="6" max="6" width="15.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="F1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s" s="0">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/db/LectureRoomReservation.xlsx
+++ b/src/main/java/db/LectureRoomReservation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgzza\OneDrive\바탕 화면\과제\소프트웨어 공학\LectureRoomReservation\src\main\java\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Administrator\Documents\NetBeansProjects\LectureRoomReservation\LectureRoomReservation_Server\src\main\java\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F1AB5F-5825-49B6-A1C1-3E7F734FB70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EE4FC0-41FC-458E-BFEF-895DDABAC642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{CD724C36-E040-4A9B-8DAC-BE65BDB47C58}"/>
+    <workbookView xWindow="31110" yWindow="3405" windowWidth="21600" windowHeight="11400" xr2:uid="{CD724C36-E040-4A9B-8DAC-BE65BDB47C58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="93">
   <si>
     <t>이름</t>
   </si>
@@ -56,241 +56,329 @@
     <t>컴퓨터소프트웨어공학과</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>문의 사항</t>
+  </si>
+  <si>
+    <t>문의 해결</t>
+  </si>
+  <si>
+    <t>강의실이 너무 더럽다.</t>
+  </si>
+  <si>
+    <t>예약 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜 (YYYY.MM.DD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 (HH:MM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>911-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>911-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>915-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>916-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>916-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>917-34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>918-40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ghi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jkl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pqr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wxy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>non</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uwu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nwn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ouo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcd1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efgh5678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ijkl9101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mnop1213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qrst1415</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uvwx1617</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yzzz1819</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>afsj1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adsf1230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zvhj2940</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oijq1592</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saog2408</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdzo1987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zcxv3498</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xovi2349</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.05.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.05.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.05.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.05.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.05.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.06.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.07.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴공과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김광식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인문과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박병철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
+  </si>
+  <si>
+    <t>a123</t>
+  </si>
+  <si>
+    <t>컴공과</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>문의 사항</t>
-  </si>
-  <si>
-    <t>문의 해결</t>
-  </si>
-  <si>
-    <t>강의실이 너무 더럽다.</t>
-  </si>
-  <si>
-    <t>예약 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좌석 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>날짜 (YYYY.MM.DD)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간 (HH:MM)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동</t>
-  </si>
-  <si>
-    <t>20213009</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>911-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>911-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>915-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>916-18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>916-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>917-34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>918-40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>def</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ghi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jkl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mno</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pqr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tuv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wxy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zzz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>non</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uwu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nwn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>owo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ouo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abcd1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>efgh5678</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ijkl9101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mnop1213</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qrst1415</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uvwx1617</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yzzz1819</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>afsj1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adsf1230</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zvhj2940</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oijq1592</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>saog2408</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hdzo1987</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zcxv3498</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xovi2349</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025.05.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025.05.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025.05.13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025.05.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025.05.21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025.06.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025.07.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>김광식</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>인문과</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>홍길똥</t>
+  </si>
+  <si>
+    <t>박병철</t>
+  </si>
+  <si>
+    <t>b123</t>
+  </si>
+  <si>
+    <t>창의관</t>
+  </si>
+  <si>
+    <t>미대</t>
+  </si>
+  <si>
+    <t>곽동철</t>
+  </si>
+  <si>
+    <t>a321</t>
+  </si>
+  <si>
+    <t>김동식</t>
+  </si>
+  <si>
+    <t>컴공</t>
+  </si>
+  <si>
+    <t>염승욱</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>컴소</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -651,78 +739,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172F3228-9310-48BF-A6E8-F4DEF8AB96A1}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s" s="0">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="G2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -740,46 +920,46 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s" s="0">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s" s="0">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s" s="0">
         <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -792,332 +972,332 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB5E0FD-E9D4-4434-BA57-5E4432659AA5}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.59765625" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" customWidth="1"/>
-    <col min="6" max="6" width="14.69921875" customWidth="1"/>
+    <col min="4" max="4" customWidth="true" width="10.625"/>
+    <col min="5" max="5" customWidth="true" width="19.375"/>
+    <col min="6" max="6" customWidth="true" width="14.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
+      <c r="C2" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>56</v>
       </c>
       <c r="F2" s="1">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>60</v>
+      <c r="C3" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>56</v>
       </c>
       <c r="F3" s="1">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="0">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" t="s">
-        <v>61</v>
+      <c r="C4" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>57</v>
       </c>
       <c r="F4" s="1">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="0">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>62</v>
+      <c r="C5" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>58</v>
       </c>
       <c r="F5" s="1">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="0">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" t="s">
-        <v>63</v>
+      <c r="C6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>59</v>
       </c>
       <c r="F6" s="1">
         <v>0.625</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="0">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>45</v>
       </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>64</v>
+      <c r="C7" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>60</v>
       </c>
       <c r="F7" s="1">
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="0">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>65</v>
+      <c r="C8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>61</v>
       </c>
       <c r="F8" s="1">
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="0">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>58</v>
       </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>65</v>
+      <c r="C9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>61</v>
       </c>
       <c r="F9" s="1">
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="0">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>66</v>
+      <c r="C10" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>62</v>
       </c>
       <c r="F10" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="0">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>60</v>
+      <c r="C11" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>56</v>
       </c>
       <c r="F11" s="1">
         <v>0.375</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="0">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>61</v>
+      <c r="C12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>57</v>
       </c>
       <c r="F12" s="1">
         <v>0.375</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="0">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" t="s">
-        <v>62</v>
+      <c r="C13" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>58</v>
       </c>
       <c r="F13" s="1">
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="0">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0">
         <v>45</v>
       </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" t="s">
-        <v>63</v>
+      <c r="C14" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>59</v>
       </c>
       <c r="F14" s="1">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="0">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0">
         <v>67</v>
       </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" t="s">
-        <v>64</v>
+      <c r="C15" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>60</v>
       </c>
       <c r="F15" s="1">
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="0">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0">
         <v>13</v>
       </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" t="s">
-        <v>66</v>
+      <c r="C16" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>62</v>
       </c>
       <c r="F16" s="1">
         <v>0.875</v>
@@ -1137,30 +1317,30 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="21.3984375" customWidth="1"/>
-    <col min="6" max="6" width="13.59765625" customWidth="1"/>
+    <col min="5" max="5" customWidth="true" width="21.375"/>
+    <col min="6" max="6" customWidth="true" width="13.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s" s="0">
         <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1177,30 +1357,30 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="20.19921875" customWidth="1"/>
-    <col min="6" max="6" width="14.19921875" customWidth="1"/>
+    <col min="5" max="5" customWidth="true" width="20.25"/>
+    <col min="6" max="6" customWidth="true" width="14.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s" s="0">
         <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1217,30 +1397,30 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="13.796875" customWidth="1"/>
+    <col min="5" max="5" customWidth="true" width="22.0"/>
+    <col min="6" max="6" customWidth="true" width="13.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s" s="0">
         <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1257,30 +1437,30 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="21.09765625" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="5" max="5" customWidth="true" width="21.125"/>
+    <col min="6" max="6" customWidth="true" width="13.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s" s="0">
         <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1297,30 +1477,30 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="22.3984375" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="5" max="5" customWidth="true" width="22.375"/>
+    <col min="6" max="6" customWidth="true" width="13.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s" s="0">
         <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1337,30 +1517,30 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="21.296875" customWidth="1"/>
-    <col min="6" max="6" width="15.296875" customWidth="1"/>
+    <col min="5" max="5" customWidth="true" width="21.25"/>
+    <col min="6" max="6" customWidth="true" width="15.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s" s="0">
         <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
